--- a/results/random_dev.xlsx
+++ b/results/random_dev.xlsx
@@ -35,280 +35,280 @@
     <t xml:space="preserve">stk.comp.ridge</t>
   </si>
   <si>
+    <t xml:space="preserve">random.stk.pf.ridge</t>
+  </si>
+  <si>
     <t xml:space="preserve">random.stk.comp.ridge</t>
   </si>
   <si>
-    <t xml:space="preserve">random.stk.pf.ridge</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRCA</t>
   </si>
   <si>
-    <t xml:space="preserve">39.479(0.842)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.639(0.925)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.555(0.916)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.097(0.866)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.477(0.873)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.493(0.869)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.145(0.879)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.551(0.878)</t>
+    <t xml:space="preserve">94.379(1.984)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.706(2.158)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.268(2.223)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.768(2.105)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.655(2.019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.271(2.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.375(2.092)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.679(2.102)</t>
   </si>
   <si>
     <t xml:space="preserve">HNSC</t>
   </si>
   <si>
-    <t xml:space="preserve">46.639(0.614)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.108(0.702)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.162(0.695)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.599(0.694)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.329(0.674)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.077(0.681)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.374(0.685)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.361(0.689)</t>
+    <t xml:space="preserve">70.524(1.040)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.944(1.248)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.986(1.247)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.458(1.237)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.001(1.125)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.133(1.131)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.691(1.183)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.672(1.160)</t>
   </si>
   <si>
     <t xml:space="preserve">KIRC</t>
   </si>
   <si>
-    <t xml:space="preserve">37.841(0.634)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.634(0.613)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.824(0.628)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.039(0.664)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.212(0.642)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.424(0.636)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.546(0.638)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.588(0.638)</t>
+    <t xml:space="preserve">62.205(1.105)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.432(1.081)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.222(1.099)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.516(1.182)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.058(1.102)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.543(1.096)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.616(1.090)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.170(1.090)</t>
   </si>
   <si>
     <t xml:space="preserve">LAML</t>
   </si>
   <si>
-    <t xml:space="preserve">15.336(0.245)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.057(0.321)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.066(0.331)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.839(0.342)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.790(0.259)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.885(0.239)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.247(0.277)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.093(0.294)</t>
+    <t xml:space="preserve">17.153(0.272)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.751(0.350)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.763(0.362)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.555(0.377)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.511(0.287)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.602(0.264)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.702(0.320)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.865(0.300)</t>
   </si>
   <si>
     <t xml:space="preserve">LGG</t>
   </si>
   <si>
-    <t xml:space="preserve">19.666(0.515)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.274(0.516)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.967(0.527)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.619(0.538)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.029(0.503)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.266(0.499)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.405(0.487)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.796(0.468)</t>
+    <t xml:space="preserve">58.652(1.619)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.006(1.890)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.326(1.938)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.037(2.000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.795(1.710)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.939(1.683)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.617(1.622)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.671(1.672)</t>
   </si>
   <si>
     <t xml:space="preserve">LIHC</t>
   </si>
   <si>
-    <t xml:space="preserve">28.724(0.561)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.663(0.552)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.685(0.552)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.338(0.588)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.832(0.560)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.631(0.545)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.709(0.527)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.814(0.527)</t>
+    <t xml:space="preserve">47.928(0.903)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.392(1.028)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.415(1.022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.230(1.052)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.271(0.976)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.947(0.970)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.539(0.886)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.202(0.875)</t>
   </si>
   <si>
     <t xml:space="preserve">LUAD</t>
   </si>
   <si>
-    <t xml:space="preserve">36.256(0.627)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.622(0.646)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.141(0.659)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.533(0.634)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.922(0.618)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.372(0.643)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.828(0.652)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.205(0.638)</t>
+    <t xml:space="preserve">62.420(1.124)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.713(1.166)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.646(1.231)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.515(1.211)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.589(1.103)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.767(1.155)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.400(1.154)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.140(1.189)</t>
   </si>
   <si>
     <t xml:space="preserve">LUSC</t>
   </si>
   <si>
-    <t xml:space="preserve">42.035(0.604)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.738(0.594)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.639(0.586)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.854(0.627)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.308(0.579)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.556(0.576)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.138(0.583)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.327(0.570)</t>
+    <t xml:space="preserve">64.478(0.970)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.133(0.948)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.007(0.945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.292(1.016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.831(0.944)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.171(0.924)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.840(0.920)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.546(0.938)</t>
   </si>
   <si>
     <t xml:space="preserve">PAAD</t>
   </si>
   <si>
-    <t xml:space="preserve">14.291(0.302)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.613(0.304)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.698(0.308)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.371(0.339)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.058(0.300)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.131(0.301)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.962(0.293)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.169(0.296)</t>
+    <t xml:space="preserve">22.795(0.588)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.960(0.595)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.106(0.603)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.658(0.662)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.394(0.578)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.480(0.573)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.687(0.573)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.497(0.574)</t>
   </si>
   <si>
     <t xml:space="preserve">SKCM</t>
   </si>
   <si>
-    <t xml:space="preserve">31.990(0.610)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.019(0.532)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.987(0.555)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.866(0.648)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.140(0.630)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.519(0.584)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.712(0.598)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.554(0.643)</t>
+    <t xml:space="preserve">47.507(0.923)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.076(0.796)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.849(0.858)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.525(0.987)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.786(0.961)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.802(0.893)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.485(0.987)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.256(0.911)</t>
   </si>
 </sst>
 </file>
